--- a/SQL-Server-Integration-Services-Testing-Test-Case-_ES.xlsx
+++ b/SQL-Server-Integration-Services-Testing-Test-Case-_ES.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kage Bushin No Jutsu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kage Bushin No Jutsu\Desktop\QA-autom1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA4624-A346-4B13-88D5-57BF50291895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8B1CF-4D8C-4EF3-8050-D305DA76CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas de SQL Server Int. Svc." sheetId="1" r:id="rId1"/>
-    <sheet name="- Descargo de responsabilidad -" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ITEM1">'Pruebas de SQL Server Int. Svc.'!#REF!</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>PLANTILLA DE CASO DE PRUEBA DE SQL SERVER INTEGRATION SERVICES</t>
   </si>
@@ -141,7 +140,16 @@
     <t>NOTAS ADICIONALES</t>
   </si>
   <si>
-    <t xml:space="preserve">Cualquier artículo, plantilla o información proporcionada por Smartsheet en el sitio web es solo para referencia. Si bien nos esforzamos por mantener la información actualizada y correcta, no hacemos representaciones o garantías de ningún tipo, expresas o implícitas, sobre la integridad, precisión, confiabilidad, idoneidad o disponibilidad con respecto al sitio web o la información, artículos, plantillas o gráficos relacionados contenidos en el sitio web. Por lo tanto, cualquier confianza que deposite en dicha información es estrictamente bajo su propio riesgo. </t>
+    <t>13/092/2025</t>
+  </si>
+  <si>
+    <t>Urrutia</t>
+  </si>
+  <si>
+    <t>LOGIN TEST EN ALIMENTOS.AGCONTROL.GOB.AR</t>
+  </si>
+  <si>
+    <t>Se prueba login de usuario, juego de datos proporcionado por dba</t>
   </si>
 </sst>
 </file>
@@ -203,12 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
@@ -250,6 +252,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
@@ -340,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -361,15 +369,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -422,6 +421,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -429,7 +456,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,96 +469,92 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -874,15 +897,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
@@ -1049,79 +1072,97 @@
       <c r="EZ1" s="5"/>
     </row>
     <row r="2" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="17"/>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="19"/>
-      <c r="J3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:156" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="J4" s="25" t="s">
+      <c r="H4" s="17"/>
+      <c r="J4" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="19"/>
-      <c r="J5" s="26" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="26">
+        <v>45702</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="J5" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:156" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1129,176 +1170,176 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="34" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="37"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="33"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="35" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="37"/>
-      <c r="J11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="33"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="35" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="37"/>
-      <c r="J13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="33"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:156" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1307,107 +1348,107 @@
     </row>
     <row r="20" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -10240,35 +10281,4 @@
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B1:B2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>